--- a/data_input_files_scripts/assessments_cse101.xlsx
+++ b/data_input_files_scripts/assessments_cse101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURFACE\Documents\GitHub\CSE_303_SEC_02_GROUP_07\data_input_files_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA339F5-58E2-42C1-9256-4B92790B5005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D6AB00-A4BE-4597-8F83-1DB21A248A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="40">
   <si>
     <t>Assessments ID</t>
   </si>
@@ -37,34 +37,85 @@
     <t>Section ID</t>
   </si>
   <si>
-    <t>Midterm_Q1</t>
-  </si>
-  <si>
-    <t>Midterm_Q2</t>
-  </si>
-  <si>
-    <t>Midterm_Q4</t>
-  </si>
-  <si>
-    <t>Midterm_Q3</t>
-  </si>
-  <si>
-    <t>Midterm_Q5</t>
-  </si>
-  <si>
-    <t>Midterm_Q6</t>
-  </si>
-  <si>
-    <t>Final_Q1</t>
-  </si>
-  <si>
-    <t>Final_Q2</t>
-  </si>
-  <si>
-    <t>Final_Q3</t>
-  </si>
-  <si>
-    <t>Final_Q4</t>
+    <t>CSE101_Mid_Q1_S1</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q1_S2</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q1_S3</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q2_S1</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q2_S2</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q4_S3</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q3_S1</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q4_S2</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q4_S1</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q5_S1</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q5_S2</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q5_S3</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q6_S1</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q6_S2</t>
+  </si>
+  <si>
+    <t>CSE101_Mid_Q6_S3</t>
+  </si>
+  <si>
+    <t>CSE101_Final_Q1_S1</t>
+  </si>
+  <si>
+    <t>CSE101_Final_Q1_S2</t>
+  </si>
+  <si>
+    <t>CSE101_Final_Q1_S3</t>
+  </si>
+  <si>
+    <t>CSE101_Final_Q2_S1</t>
+  </si>
+  <si>
+    <t>CSE101_Final_Q2_S2</t>
+  </si>
+  <si>
+    <t>CSE101_Final_Q2_S3</t>
+  </si>
+  <si>
+    <t>CSE101_Final_Q3_S1</t>
+  </si>
+  <si>
+    <t>CSE101_Final_Q3_S2</t>
+  </si>
+  <si>
+    <t>CSE101_Final_Q3_S3</t>
+  </si>
+  <si>
+    <t>CSE101_Final_Q4_S1</t>
+  </si>
+  <si>
+    <t>CSE101_Final_Q4_S2</t>
+  </si>
+  <si>
+    <t>CSE101_Final_Q4_S3</t>
   </si>
   <si>
     <t>Midterm</t>
@@ -147,13 +198,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,22 +543,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,600 +571,600 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
         <v>30</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
         <v>30</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>21</v>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>22</v>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
         <v>30</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2">
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
         <v>30</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>21</v>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
         <v>30</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
         <v>20</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>20</v>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
         <v>20</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>21</v>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
         <v>20</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>22</v>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
         <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>21</v>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22">
         <v>20</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>22</v>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
         <v>15</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
         <v>15</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>21</v>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
         <v>15</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>22</v>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26">
         <v>15</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
         <v>15</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>21</v>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28">
         <v>15</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>22</v>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
         <v>50</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>20</v>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
         <v>50</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>21</v>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31">
         <v>50</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>22</v>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data_input_files_scripts/assessments_cse101.xlsx
+++ b/data_input_files_scripts/assessments_cse101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURFACE\Documents\GitHub\CSE_303_SEC_02_GROUP_07\data_input_files_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D6AB00-A4BE-4597-8F83-1DB21A248A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C68F144-466D-4A79-BFA2-CDBC3907CCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,629 +541,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="1" max="1" width="29.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="C2">
         <v>25</v>
       </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
       <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="C3">
         <v>25</v>
       </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
       <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="C4">
         <v>25</v>
       </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="C5">
         <v>25</v>
       </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
       <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="C6">
         <v>25</v>
       </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
         <v>35</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
         <v>35</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
         <v>50</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D31" t="s">
         <v>36</v>
       </c>
-      <c r="F29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30">
-        <v>50</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31">
-        <v>50</v>
-      </c>
       <c r="E31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" t="s">
         <v>39</v>
       </c>
     </row>
